--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
